--- a/run/output/iecorrect/iecorrect-no-corrections.xlsx
+++ b/run/output/iecorrect/iecorrect-no-corrections.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="86" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="152" uniqueCount="18">
   <si>
     <t>varname</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>16 Dec 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9 Jan 2023</t>
   </si>
 </sst>
 </file>
@@ -525,7 +528,7 @@
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -551,7 +554,7 @@
         <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H3" s="1">
         <v>1</v>
